--- a/templates/Debt_Snowball.xlsx
+++ b/templates/Debt_Snowball.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc653c6d4474c51/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{5433AE1A-E9C6-4963-B68A-09EB3D497424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926B59C4-8F6C-4EF9-AC67-A075C9DFB1E3}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{5433AE1A-E9C6-4963-B68A-09EB3D497424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B5C623-1394-425E-8F6C-C11CA28628F9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9F296B3-AD20-4DFD-9D46-C221707E2E09}"/>
+    <workbookView xWindow="31485" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{C9F296B3-AD20-4DFD-9D46-C221707E2E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dim" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dim!$A$1:$A$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,13 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Debts</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Monthly Minimum ($)</t>
   </si>
@@ -106,6 +103,27 @@
   </si>
   <si>
     <t>Beginning  Amount ($)</t>
+  </si>
+  <si>
+    <t>Debt Type</t>
+  </si>
+  <si>
+    <t>Balance ($)</t>
+  </si>
+  <si>
+    <t>Payment ($)</t>
+  </si>
+  <si>
+    <t>Interest ($)</t>
+  </si>
+  <si>
+    <t>Interest Rate (%)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -159,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -169,11 +187,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,126 +542,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41DD036-5E64-431E-960C-886872302F89}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="20" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <f>B1/12</f>
-        <v>7.0833333333333338E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <f>(35000-350)*B2</f>
-        <v>245.43750000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>361.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(I$6:T$6)</f>
+        <v>4340.5199999999995</v>
+      </c>
+      <c r="G6" s="8">
+        <f>T$8</f>
+        <v>12824.729367818474</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="J6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="K6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="L6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="M6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="N6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="O6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="P6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="R6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="S6" s="7">
+        <v>361.71</v>
+      </c>
+      <c r="T6" s="7">
+        <v>361.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5">
+        <f>(C$6/12)*$D$6</f>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="J7" s="5">
+        <f>($C$6/12)*I$8</f>
+        <v>104.96637777777778</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:T7" si="0">($C$6/12)*J$8</f>
+        <v>103.25475362962963</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>101.53171865382717</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>99.79719677818602</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>98.051111423373939</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>96.293385499529776</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>94.523941402859975</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>92.742701012212393</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="0"/>
+        <v>90.949585685627142</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="0"/>
+        <v>89.144516256864662</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="0"/>
+        <v>87.327413031910424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f>E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7">
-        <v>16000</v>
+      <c r="I8" s="5">
+        <f>D$6-I$6+I$7</f>
+        <v>15744.956666666667</v>
+      </c>
+      <c r="J8" s="5">
+        <f>I$8-J$6+J$7</f>
+        <v>15488.213044444445</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" ref="K8:T8" si="1">J$8-K$6+K$7</f>
+        <v>15229.757798074075</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>14969.579516727903</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>14707.666713506091</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>14444.007824929466</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>14178.591210428996</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>13911.405151831857</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="1"/>
+        <v>13642.43785284407</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="1"/>
+        <v>13371.677438529698</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="1"/>
+        <v>13099.111954786564</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="1"/>
+        <v>12824.729367818474</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="7">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15E141F4-A7D8-4632-8185-5BAB122EE4A4}">
+          <x14:formula1>
+            <xm:f>Dim!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D48D07-E173-4A9D-B0B4-FF2B4A2EC35E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,30 +846,45 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A6" xr:uid="{18D48D07-E173-4A9D-B0B4-FF2B4A2EC35E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>